--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placement_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1C208-68B5-4BD8-81F1-A5D14ED93360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396B34C5-599D-4560-9458-231028CF9A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="983" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,6 +1552,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1861,7 +1873,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1908,9 +1920,11 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="11">
+        <v>44575</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1920,9 +1934,11 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="11">
+        <v>44575</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -1932,9 +1948,11 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="11">
+        <v>44575</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placement_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396B34C5-599D-4560-9458-231028CF9A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24A0A3D-1482-4B92-8971-9EB8E8A14FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="983" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1914,9 +1914,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1962,9 +1960,11 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="11">
+        <v>44577</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
